--- a/biology/Médecine/Elsan/Elsan.xlsx
+++ b/biology/Médecine/Elsan/Elsan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Elsan est un groupe d'hôpitaux privés en France avec 140 établissements répartis sur le territoire, dirigée par Sébastien Proto. Le groupe est le premier groupe d'hospitalisation privé de France[1].
+Elsan est un groupe d'hôpitaux privés en France avec 140 établissements répartis sur le territoire, dirigée par Sébastien Proto. Le groupe est le premier groupe d'hospitalisation privé de France.
 </t>
         </is>
       </c>
@@ -512,20 +524,17 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En novembre 2015, Vedici et Vitalia fusionnent pour donner naissance au groupe Elsan, dont le nom est dévoilé en janvier 2016[2].
-En juin 2017, le groupe finalise son rapprochement avec MédiPôle Partenaires et devient le numéro un français[3],[4].
-En 2020, des partenariats sont noués avec Pandalab et Lifen[5],[6]. La même année, en octobre, la Commission européenne entérine l'acquisition du contrôle exclusif d'Elsan, par KKR, une entreprise d'investissement américaine[7],[8].
-Durant la crise sanitaire liée à la Covid-19, les établissements du groupe participent à la prise en charge des patients développant des formes graves de la maladie[9]. Le groupe a également aidé les Ehpad à casser les chaînes de contamination des résidents[10].      
-En faisant évoluer la composition de son capital avec l’entrée de KKR en décembre 2020, le groupe se dote également d’un soutien français important qui représente plus d’un tiers du capital avec l’arrivée d’Ardian, Merieux Equity Partners, de CNP Assurances et d’Axa, aux côtés de Tethys Invest et CVC Capital Partners[11],[12]. La hausse garantie des tarifs pour une durée de trois ans obtenue de la part du gouvernement français début 2020 favorise l'attrait des investisseurs[13]. Les rapprochements envisagés avec d'autres acteurs permettent aussi « de réaliser des économies d’échelle » et de mutualiser l'utilisation de machines modernes[14].
-Après autorisation de l'Autorité de la concurrence en 2021[15], C2S, acteur régional d’hospitalisation privée, est acquis.
-En juin 2023, la CNIL autorise Elsan à constituer le premier entrepôt de données de santé hospitalier d’envergure nationale[16],[17], « EDS ELSAN ». En septembre 2023, Sébastien Proto devient président d'Elsan[18].
-Chiffres clés
-En 2022, Elsan revendique 140 cliniques et hôpitaux privés en France, dont 104 cliniques MCO (médecine, chirurgie, gynécologie obstétrique), ainsi que 28 000 collaborateurs et 7 500 médecins. Quatre millions de patients sont traités par an, selon les chiffres de 2023[19],[20].
-Le groupe compte 140 établissements[21] sur le territoire.
-Procédure judiciaire
-Fin mai 2018, Jérôme Nouzarède, ancien président du Conseil d'administration d'Elsan, est mis en examen avec trois autres cadres du groupe, pour « escroquerie au jugement » et « banqueroute ». Après enquête de la Brigade financière du parquet de Nanterre, ils sont soupçonnés d’avoir programmé en 2016, la cessation de paiements de la clinique Ambroise-Paré de Bourg-la-Reine (Hauts-de-Seine) afin qu'elle soit placée en liquidation judiciaire par le Tribunal de commerce. La fermeture de l'établissement, avec expulsion des patients et le licenciement de soixante-dix salariés, aurait permis d’économiser quelque deux ou trois millions d'euros[22].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En novembre 2015, Vedici et Vitalia fusionnent pour donner naissance au groupe Elsan, dont le nom est dévoilé en janvier 2016.
+En juin 2017, le groupe finalise son rapprochement avec MédiPôle Partenaires et devient le numéro un français,.
+En 2020, des partenariats sont noués avec Pandalab et Lifen,. La même année, en octobre, la Commission européenne entérine l'acquisition du contrôle exclusif d'Elsan, par KKR, une entreprise d'investissement américaine,.
+Durant la crise sanitaire liée à la Covid-19, les établissements du groupe participent à la prise en charge des patients développant des formes graves de la maladie. Le groupe a également aidé les Ehpad à casser les chaînes de contamination des résidents.      
+En faisant évoluer la composition de son capital avec l’entrée de KKR en décembre 2020, le groupe se dote également d’un soutien français important qui représente plus d’un tiers du capital avec l’arrivée d’Ardian, Merieux Equity Partners, de CNP Assurances et d’Axa, aux côtés de Tethys Invest et CVC Capital Partners,. La hausse garantie des tarifs pour une durée de trois ans obtenue de la part du gouvernement français début 2020 favorise l'attrait des investisseurs. Les rapprochements envisagés avec d'autres acteurs permettent aussi « de réaliser des économies d’échelle » et de mutualiser l'utilisation de machines modernes.
+Après autorisation de l'Autorité de la concurrence en 2021, C2S, acteur régional d’hospitalisation privée, est acquis.
+En juin 2023, la CNIL autorise Elsan à constituer le premier entrepôt de données de santé hospitalier d’envergure nationale « EDS ELSAN ». En septembre 2023, Sébastien Proto devient président d'Elsan.
 </t>
         </is>
       </c>
@@ -551,16 +560,93 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Chiffres clés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2022, Elsan revendique 140 cliniques et hôpitaux privés en France, dont 104 cliniques MCO (médecine, chirurgie, gynécologie obstétrique), ainsi que 28 000 collaborateurs et 7 500 médecins. Quatre millions de patients sont traités par an, selon les chiffres de 2023,.
+Le groupe compte 140 établissements sur le territoire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Elsan</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elsan</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Procédure judiciaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fin mai 2018, Jérôme Nouzarède, ancien président du Conseil d'administration d'Elsan, est mis en examen avec trois autres cadres du groupe, pour « escroquerie au jugement » et « banqueroute ». Après enquête de la Brigade financière du parquet de Nanterre, ils sont soupçonnés d’avoir programmé en 2016, la cessation de paiements de la clinique Ambroise-Paré de Bourg-la-Reine (Hauts-de-Seine) afin qu'elle soit placée en liquidation judiciaire par le Tribunal de commerce. La fermeture de l'établissement, avec expulsion des patients et le licenciement de soixante-dix salariés, aurait permis d’économiser quelque deux ou trois millions d'euros.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Elsan</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elsan</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Classement des établissements</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ELSAN figure dans le Palmarès des entreprises engagées pour la diversité, réalisé par le magazine Capital en 2022, à la 12e place du secteur médico-social[23].
-Quatorze établissements du groupe apparaissant dans un classement de Newsweek pour 2022 regroupant près de cent cinquante établissements publics et privés en France[24].
-Dix hôpitaux du groupe apparaissent dans un classement de Newsweek pour 2021 regroupant près de cent vingt établissements publics et privés en France[25][source insuffisante].
-Neuf établissements figurent dans le « tableau d'honneur » du palmarès des cinquante meilleurs hôpitaux et cliniques établi par Le Point pour 2020[26].
-En 2018, L’Express classe sept établissements Elsan parmi les 500 premiers établissements de France pour la chirurgie de l’obésité[27].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ELSAN figure dans le Palmarès des entreprises engagées pour la diversité, réalisé par le magazine Capital en 2022, à la 12e place du secteur médico-social.
+Quatorze établissements du groupe apparaissant dans un classement de Newsweek pour 2022 regroupant près de cent cinquante établissements publics et privés en France.
+Dix hôpitaux du groupe apparaissent dans un classement de Newsweek pour 2021 regroupant près de cent vingt établissements publics et privés en France[source insuffisante].
+Neuf établissements figurent dans le « tableau d'honneur » du palmarès des cinquante meilleurs hôpitaux et cliniques établi par Le Point pour 2020.
+En 2018, L’Express classe sept établissements Elsan parmi les 500 premiers établissements de France pour la chirurgie de l’obésité.
 </t>
         </is>
       </c>
